--- a/data/Preferences.xlsx
+++ b/data/Preferences.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mousseauv\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\3A\Mention IA\SDP\SDP_Pfizer_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5CF863-51BB-4D95-B20D-BCA04638881E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48840" yWindow="-1200" windowWidth="30960" windowHeight="16800" xr2:uid="{F225EBC2-6CEB-4050-9124-8F4B39B5E14B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DM Preferences" sheetId="3" r:id="rId1"/>
@@ -53,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,22 +434,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383A467C-364E-4C73-95D0-58508C5BD38F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G31:G32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -464,7 +463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -478,7 +477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -492,7 +491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -506,7 +505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -520,7 +519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -534,7 +533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -548,7 +547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -562,7 +561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -576,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -590,7 +589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -604,7 +603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -618,7 +617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -632,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -646,7 +645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -660,7 +659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -674,7 +673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -688,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -702,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -716,7 +715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -730,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -744,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -758,7 +757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -772,7 +771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -786,7 +785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -800,7 +799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -814,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -828,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -842,7 +841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -856,7 +855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -870,7 +869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -884,7 +883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -898,7 +897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -912,7 +911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -926,7 +925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -940,7 +939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -954,35 +953,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>180.95922935923721</v>
+        <v>180.548785348433</v>
       </c>
       <c r="C37" s="2">
-        <v>1.3835480599122087</v>
+        <v>1.3674387155236642</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>180.548785348433</v>
+        <v>180.95922935923721</v>
       </c>
       <c r="C38" s="2">
-        <v>1.3674387155236642</v>
+        <v>1.3835480599122087</v>
       </c>
       <c r="D38" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -996,7 +995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>39</v>
       </c>
